--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>134.051065707593</v>
+        <v>4769.924107626556</v>
       </c>
       <c r="R2">
-        <v>1206.459591368337</v>
+        <v>42929.31696863901</v>
       </c>
       <c r="S2">
-        <v>0.000101743696425136</v>
+        <v>0.0007267974189152476</v>
       </c>
       <c r="T2">
-        <v>0.000101743696425136</v>
+        <v>0.0007267974189152475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>205.9431493892613</v>
+        <v>3928.064598228462</v>
       </c>
       <c r="R3">
-        <v>1853.488344503352</v>
+        <v>35352.58138405616</v>
       </c>
       <c r="S3">
-        <v>0.000156309218145295</v>
+        <v>0.0005985225649104436</v>
       </c>
       <c r="T3">
-        <v>0.0001563092181452951</v>
+        <v>0.0005985225649104435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>102.9083518894053</v>
+        <v>2266.224834782749</v>
       </c>
       <c r="R4">
-        <v>926.1751670046481</v>
+        <v>20396.02351304474</v>
       </c>
       <c r="S4">
-        <v>7.810662346456573E-05</v>
+        <v>0.0003453066177653088</v>
       </c>
       <c r="T4">
-        <v>7.810662346456573E-05</v>
+        <v>0.0003453066177653087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>163.7969317600084</v>
+        <v>2290.597334156044</v>
       </c>
       <c r="R5">
-        <v>1474.172385840075</v>
+        <v>20615.3760074044</v>
       </c>
       <c r="S5">
-        <v>0.0001243205730024647</v>
+        <v>0.0003490202763555372</v>
       </c>
       <c r="T5">
-        <v>0.0001243205730024647</v>
+        <v>0.0003490202763555371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>82.27875884009801</v>
+        <v>1725.349919669353</v>
       </c>
       <c r="R6">
-        <v>740.508829560882</v>
+        <v>15528.14927702418</v>
       </c>
       <c r="S6">
-        <v>6.244892584386018E-05</v>
+        <v>0.0002628930440080476</v>
       </c>
       <c r="T6">
-        <v>6.244892584386019E-05</v>
+        <v>0.0002628930440080476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>108.0132347157767</v>
+        <v>2886.659431247975</v>
       </c>
       <c r="R7">
-        <v>972.1191124419902</v>
+        <v>25979.93488123177</v>
       </c>
       <c r="S7">
-        <v>8.198118907007284E-05</v>
+        <v>0.0004398427682662495</v>
       </c>
       <c r="T7">
-        <v>8.198118907007286E-05</v>
+        <v>0.0004398427682662495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>2151.389240591765</v>
+        <v>4013.552231709126</v>
       </c>
       <c r="R8">
-        <v>19362.50316532588</v>
+        <v>36121.97008538213</v>
       </c>
       <c r="S8">
-        <v>0.001632887382369194</v>
+        <v>0.0006115483887938</v>
       </c>
       <c r="T8">
-        <v>0.001632887382369194</v>
+        <v>0.0006115483887938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>3305.187268977772</v>
@@ -1013,10 +1013,10 @@
         <v>29746.68542079996</v>
       </c>
       <c r="S9">
-        <v>0.002508610941270949</v>
+        <v>0.0005036142131242169</v>
       </c>
       <c r="T9">
-        <v>0.00250861094127095</v>
+        <v>0.0005036142131242169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>1651.578969948893</v>
+        <v>1906.867182363367</v>
       </c>
       <c r="R10">
-        <v>14864.21072954004</v>
+        <v>17161.8046412703</v>
       </c>
       <c r="S10">
-        <v>0.001253535348291534</v>
+        <v>0.0002905509846875722</v>
       </c>
       <c r="T10">
-        <v>0.001253535348291535</v>
+        <v>0.0002905509846875722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>2628.781463021708</v>
+        <v>1927.374908910968</v>
       </c>
       <c r="R11">
-        <v>23659.03316719537</v>
+        <v>17346.37418019872</v>
       </c>
       <c r="S11">
-        <v>0.001995224295531697</v>
+        <v>0.0002936757645344435</v>
       </c>
       <c r="T11">
-        <v>0.001995224295531698</v>
+        <v>0.0002936757645344435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>1320.49406368729</v>
+        <v>1451.759370656688</v>
       </c>
       <c r="R12">
-        <v>11884.44657318561</v>
+        <v>13065.83433591019</v>
       </c>
       <c r="S12">
-        <v>0.001002244528514656</v>
+        <v>0.0002212058178855018</v>
       </c>
       <c r="T12">
-        <v>0.001002244528514657</v>
+        <v>0.0002212058178855018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>1733.507374838216</v>
+        <v>2428.918813183048</v>
       </c>
       <c r="R13">
-        <v>15601.56637354395</v>
+        <v>21860.26931864744</v>
       </c>
       <c r="S13">
-        <v>0.001315718358263553</v>
+        <v>0.0003700964385059218</v>
       </c>
       <c r="T13">
-        <v>0.001315718358263553</v>
+        <v>0.0003700964385059218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>91654.66168099603</v>
+        <v>214694.6328360386</v>
       </c>
       <c r="R14">
-        <v>824891.9551289643</v>
+        <v>1932251.695524347</v>
       </c>
       <c r="S14">
-        <v>0.06956516178962086</v>
+        <v>0.03271320496498056</v>
       </c>
       <c r="T14">
-        <v>0.06956516178962087</v>
+        <v>0.03271320496498056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>140809.3966516106</v>
+        <v>176802.4747656901</v>
       </c>
       <c r="R15">
-        <v>1267284.569864495</v>
+        <v>1591222.272891211</v>
       </c>
       <c r="S15">
-        <v>0.1068732160472226</v>
+        <v>0.02693954440744157</v>
       </c>
       <c r="T15">
-        <v>0.1068732160472226</v>
+        <v>0.02693954440744157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>70361.47103184187</v>
+        <v>102002.9455080141</v>
       </c>
       <c r="R16">
-        <v>633253.2392865767</v>
+        <v>918026.5095721269</v>
       </c>
       <c r="S16">
-        <v>0.05340379885009913</v>
+        <v>0.01554227611262058</v>
       </c>
       <c r="T16">
-        <v>0.05340379885009914</v>
+        <v>0.01554227611262058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>111992.7863728904</v>
+        <v>103099.9534867951</v>
       </c>
       <c r="R17">
-        <v>1007935.077356014</v>
+        <v>927899.581381156</v>
       </c>
       <c r="S17">
-        <v>0.08500163723713723</v>
+        <v>0.01570942815728995</v>
       </c>
       <c r="T17">
-        <v>0.08500163723713726</v>
+        <v>0.01570942815728995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>56256.41068360629</v>
+        <v>77658.12603283067</v>
       </c>
       <c r="R18">
-        <v>506307.6961524566</v>
+        <v>698923.1342954759</v>
       </c>
       <c r="S18">
-        <v>0.04269816983809632</v>
+        <v>0.01183283513215913</v>
       </c>
       <c r="T18">
-        <v>0.04269816983809633</v>
+        <v>0.01183283513215913</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>73851.82976865934</v>
+        <v>129928.7520578289</v>
       </c>
       <c r="R19">
-        <v>664666.4679179342</v>
+        <v>1169358.76852046</v>
       </c>
       <c r="S19">
-        <v>0.05605295346784913</v>
+        <v>0.01979735515865411</v>
       </c>
       <c r="T19">
-        <v>0.05605295346784914</v>
+        <v>0.01979735515865411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>5320.000316382984</v>
+        <v>26566.28555729341</v>
       </c>
       <c r="R20">
-        <v>47880.00284744686</v>
+        <v>239096.5700156407</v>
       </c>
       <c r="S20">
-        <v>0.004037838075471849</v>
+        <v>0.004047927668772448</v>
       </c>
       <c r="T20">
-        <v>0.00403783807547185</v>
+        <v>0.004047927668772448</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>8173.136215848225</v>
+        <v>21877.51491416441</v>
       </c>
       <c r="R21">
-        <v>73558.22594263403</v>
+        <v>196897.6342274797</v>
       </c>
       <c r="S21">
-        <v>0.006203345610100916</v>
+        <v>0.003333495672702933</v>
       </c>
       <c r="T21">
-        <v>0.006203345610100918</v>
+        <v>0.003333495672702933</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>4084.059024225106</v>
+        <v>12621.83102695648</v>
       </c>
       <c r="R22">
-        <v>36756.53121802596</v>
+        <v>113596.4792426083</v>
       </c>
       <c r="S22">
-        <v>0.003099768430409127</v>
+        <v>0.001923199196756395</v>
       </c>
       <c r="T22">
-        <v>0.003099768430409127</v>
+        <v>0.001923199196756395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>6500.505789984541</v>
+        <v>12757.57464959833</v>
       </c>
       <c r="R23">
-        <v>58504.55210986087</v>
+        <v>114818.171846385</v>
       </c>
       <c r="S23">
-        <v>0.004933832373617327</v>
+        <v>0.001943882568722955</v>
       </c>
       <c r="T23">
-        <v>0.004933832373617329</v>
+        <v>0.001943882568722955</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>3265.34534246621</v>
+        <v>9609.406275228279</v>
       </c>
       <c r="R24">
-        <v>29388.10808219589</v>
+        <v>86484.65647705452</v>
       </c>
       <c r="S24">
-        <v>0.002478371234823353</v>
+        <v>0.001464193458964502</v>
       </c>
       <c r="T24">
-        <v>0.002478371234823354</v>
+        <v>0.001464193458964502</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>4286.653297594284</v>
+        <v>16077.36664710722</v>
       </c>
       <c r="R25">
-        <v>38579.87967834855</v>
+        <v>144696.299823965</v>
       </c>
       <c r="S25">
-        <v>0.003253535878197324</v>
+        <v>0.002449722116833824</v>
       </c>
       <c r="T25">
-        <v>0.003253535878197325</v>
+        <v>0.002449722116833824</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>79963.19602165175</v>
+        <v>182766.1817861848</v>
       </c>
       <c r="R26">
-        <v>719668.7641948657</v>
+        <v>1644895.636075663</v>
       </c>
       <c r="S26">
-        <v>0.06069143201708799</v>
+        <v>0.02784823955056389</v>
       </c>
       <c r="T26">
-        <v>0.06069143201708801</v>
+        <v>0.02784823955056389</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>122847.7546001115</v>
+        <v>150509.1804877636</v>
       </c>
       <c r="R27">
-        <v>1105629.791401004</v>
+        <v>1354582.624389872</v>
       </c>
       <c r="S27">
-        <v>0.0932404720885063</v>
+        <v>0.02293321265356282</v>
       </c>
       <c r="T27">
-        <v>0.09324047208850635</v>
+        <v>0.02293321265356282</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>61386.16407830266</v>
+        <v>86833.51155630124</v>
       </c>
       <c r="R28">
-        <v>552475.476704724</v>
+        <v>781501.6040067112</v>
       </c>
       <c r="S28">
-        <v>0.04659161200784578</v>
+        <v>0.01323089647769466</v>
       </c>
       <c r="T28">
-        <v>0.04659161200784578</v>
+        <v>0.01323089647769466</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>97706.99019014792</v>
+        <v>87767.3772846723</v>
       </c>
       <c r="R29">
-        <v>879362.9117113312</v>
+        <v>789906.3955620507</v>
       </c>
       <c r="S29">
-        <v>0.0741588311591995</v>
+        <v>0.01337319039803362</v>
       </c>
       <c r="T29">
-        <v>0.07415883115919952</v>
+        <v>0.01337319039803362</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>49080.34476876449</v>
+        <v>66109.14764008156</v>
       </c>
       <c r="R30">
-        <v>441723.1029188805</v>
+        <v>594982.3287607342</v>
       </c>
       <c r="S30">
-        <v>0.03725159268399113</v>
+        <v>0.01007310740954456</v>
       </c>
       <c r="T30">
-        <v>0.03725159268399114</v>
+        <v>0.01007310740954456</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>64431.29276831332</v>
+        <v>110606.3137404486</v>
       </c>
       <c r="R31">
-        <v>579881.63491482</v>
+        <v>995456.8236640373</v>
       </c>
       <c r="S31">
-        <v>0.04890284054882384</v>
+        <v>0.01685317869392437</v>
       </c>
       <c r="T31">
-        <v>0.04890284054882386</v>
+        <v>0.01685317869392437</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>42381.59436227378</v>
+        <v>1319303.160010831</v>
       </c>
       <c r="R32">
-        <v>381434.349260464</v>
+        <v>11873728.44009748</v>
       </c>
       <c r="S32">
-        <v>0.0321672942176706</v>
+        <v>0.2010233516985073</v>
       </c>
       <c r="T32">
-        <v>0.0321672942176706</v>
+        <v>0.2010233516985072</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>65111.00059542784</v>
+        <v>1086455.029522079</v>
       </c>
       <c r="R33">
-        <v>585999.0053588506</v>
+        <v>9778095.265698709</v>
       </c>
       <c r="S33">
-        <v>0.04941873340245159</v>
+        <v>0.1655440827583828</v>
       </c>
       <c r="T33">
-        <v>0.04941873340245159</v>
+        <v>0.1655440827583828</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>32535.51177116726</v>
+        <v>626810.3052296995</v>
       </c>
       <c r="R34">
-        <v>292819.6059405053</v>
+        <v>5641292.747067295</v>
       </c>
       <c r="S34">
-        <v>0.0246941955679997</v>
+        <v>0.09550762270243036</v>
       </c>
       <c r="T34">
-        <v>0.0246941955679997</v>
+        <v>0.09550762270243035</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>51786.04946550978</v>
+        <v>633551.4429742474</v>
       </c>
       <c r="R35">
-        <v>466074.445189588</v>
+        <v>5701962.986768226</v>
       </c>
       <c r="S35">
-        <v>0.03930520110424947</v>
+        <v>0.09653477563038912</v>
       </c>
       <c r="T35">
-        <v>0.03930520110424947</v>
+        <v>0.09653477563038911</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>26013.25818176515</v>
+        <v>477210.8632723811</v>
       </c>
       <c r="R36">
-        <v>234119.3236358863</v>
+        <v>4294897.76945143</v>
       </c>
       <c r="S36">
-        <v>0.01974385678699071</v>
+        <v>0.07271302768740778</v>
       </c>
       <c r="T36">
-        <v>0.01974385678699072</v>
+        <v>0.07271302768740777</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>34149.47188459255</v>
+        <v>798414.9901738192</v>
       </c>
       <c r="R37">
-        <v>307345.246961333</v>
+        <v>7185734.911564373</v>
       </c>
       <c r="S37">
-        <v>0.02591917850234514</v>
+        <v>0.1216551754259076</v>
       </c>
       <c r="T37">
-        <v>0.02591917850234515</v>
+        <v>0.1216551754259076</v>
       </c>
     </row>
   </sheetData>
